--- a/演示文档/导入.xlsx
+++ b/演示文档/导入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12790"/>
+    <workbookView windowWidth="19840" windowHeight="10120"/>
   </bookViews>
   <sheets>
     <sheet name="时长导入模板" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>2023016701</t>
   </si>
   <si>
-    <t>活动表现优异</t>
+    <t>活动表现不错</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1233,7 +1233,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
